--- a/src/test/resources/Plan de Pruebas/PlanPruebasLaura.xlsx
+++ b/src/test/resources/Plan de Pruebas/PlanPruebasLaura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\HIBERUS\PROYECTO FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\IdeaProjects\HiberusProyectoFinal\src\test\resources\Plan de Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0105D-62B0-4617-985D-9CC1575AAF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC108A8-E58D-4681-9089-4DBEE77AC43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{86056DFC-2E4E-4535-9F43-E79E1780B8F6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{86056DFC-2E4E-4535-9F43-E79E1780B8F6}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="120">
   <si>
     <t>Test</t>
   </si>
@@ -434,6 +434,18 @@
   </si>
   <si>
     <t>Se visualiza la página "Account" indicando "You have been logged off your account."</t>
+  </si>
+  <si>
+    <t>Comprobar el precio final</t>
+  </si>
+  <si>
+    <t>del checkout de varios productos</t>
+  </si>
+  <si>
+    <t>Añadir tres productos al carrito</t>
+  </si>
+  <si>
+    <t>El importe Total es igual a la suma de los precios de los tres productos añadidos.</t>
   </si>
 </sst>
 </file>
@@ -476,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +531,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -532,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -651,6 +675,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,6 +705,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFEFF7"/>
+      <color rgb="FFFFD1E8"/>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFFF9E7"/>
       <color rgb="FFEBF7FF"/>
       <color rgb="FFCCECFF"/>
@@ -972,10 +1022,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53C2ADA-90D4-47CD-A320-E762AEB77D78}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A3:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,50 +1596,50 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="42">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12">
         <v>6</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="12">
         <v>6</v>
       </c>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="42">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12">
         <v>7</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="12">
         <v>7</v>
       </c>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="12" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="42">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12">
         <v>8</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="12">
         <v>8</v>
       </c>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1598,9 +1651,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC63C1D-49D4-4970-AE63-6981312B45A2}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A3:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:F10"/>
     </sheetView>
   </sheetViews>
@@ -2843,10 +2899,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68B81A-5100-4503-8DFE-6700EC3CC080}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,10 +3639,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEDC44B-34B4-4AE5-B49C-C80F3341FCC1}">
-  <dimension ref="A1:F82"/>
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,326 +3659,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="48">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="37">
-        <v>1</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="37">
-        <v>1</v>
-      </c>
-      <c r="F2" s="41" t="s">
+      <c r="C2" s="49">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="49">
+        <v>1</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="37">
-        <v>2</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="49">
+        <v>2</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="37">
-        <v>2</v>
-      </c>
-      <c r="F3" s="41" t="s">
+      <c r="E3" s="49">
+        <v>2</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37">
-        <v>3</v>
-      </c>
-      <c r="D4" s="41" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49">
+        <v>3</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="37">
-        <v>3</v>
-      </c>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="49">
+        <v>3</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="49">
         <v>4</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37">
+      <c r="A6" s="51"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49">
         <v>5</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="49">
         <v>5</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37">
+      <c r="A7" s="51"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="49">
         <v>6</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="50" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37">
+      <c r="A8" s="51"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49">
         <v>7</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="49">
         <v>7</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37">
+      <c r="A9" s="51"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49">
         <v>8</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="49">
         <v>8</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37">
+      <c r="A10" s="51"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49">
         <v>9</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="49">
         <v>9</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="50" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37">
+      <c r="A11" s="51"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49">
         <v>10</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="49">
         <v>10</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37">
+      <c r="A12" s="51"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49">
         <v>11</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="49">
         <v>11</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="50" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37">
+      <c r="A13" s="51"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49">
         <v>12</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="49">
         <v>12</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="50" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37">
+      <c r="A14" s="51"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49">
         <v>13</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="49">
         <v>13</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="50" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37">
+      <c r="A15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49">
         <v>14</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="49">
         <v>14</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="50" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37">
+      <c r="A16" s="51"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49">
         <v>15</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="49">
         <v>15</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="50" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37">
+      <c r="A17" s="51"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49">
         <v>16</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="49">
         <v>16</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37">
+      <c r="A18" s="51"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49">
         <v>17</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="49">
         <v>17</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37">
+      <c r="A19" s="51"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49">
         <v>18</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="49">
         <v>18</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="50" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37">
+      <c r="A20" s="51"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49">
         <v>19</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="49">
         <v>19</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="50" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3941,175 +4003,350 @@
       <c r="D23"/>
       <c r="E23" s="28"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" s="28"/>
+    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="45" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" s="28"/>
+      <c r="A25" s="48">
+        <v>2</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="49">
+        <v>1</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="49">
+        <v>1</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="28"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="49">
+        <v>2</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="49">
+        <v>2</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="28"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49">
+        <v>3</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="49">
+        <v>3</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="28"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49">
+        <v>4</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="49">
+        <v>4</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="28"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49">
+        <v>5</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="49">
+        <v>5</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" s="28"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49">
+        <v>6</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="49">
+        <v>6</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="28"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49">
+        <v>7</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="49">
+        <v>7</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="28"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" s="28"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" s="28"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49">
+        <v>8</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="49">
+        <v>8</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49">
+        <v>9</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="49">
+        <v>9</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49">
+        <v>10</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="49">
+        <v>10</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="51"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49">
+        <v>11</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="49">
+        <v>11</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49">
+        <v>12</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="49">
+        <v>12</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49">
+        <v>13</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="49">
+        <v>13</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="51"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49">
+        <v>14</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="49">
+        <v>14</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49">
+        <v>15</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="49">
+        <v>15</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="51"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49">
+        <v>16</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="49">
+        <v>16</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49">
+        <v>17</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="49">
+        <v>17</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49">
+        <v>18</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="49">
+        <v>18</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -4347,13 +4584,6 @@
       <c r="D81"/>
       <c r="E81" s="28"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82" s="28"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
